--- a/data/trans_orig/P6602-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>79325</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65749</v>
+        <v>65474</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97046</v>
+        <v>94921</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3232021506321739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2678881742937342</v>
+        <v>0.266765458563409</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3954032812859001</v>
+        <v>0.386746058444735</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>142</v>
@@ -765,19 +765,19 @@
         <v>152403</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137318</v>
+        <v>137635</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166032</v>
+        <v>165440</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6965989473898788</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6276478281311275</v>
+        <v>0.6290947084266807</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7588934032666698</v>
+        <v>0.756184969626264</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>218</v>
@@ -786,19 +786,19 @@
         <v>231728</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>209924</v>
+        <v>210242</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>253078</v>
+        <v>255965</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4991810316635035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4522100574711566</v>
+        <v>0.4528950392229411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5451719446729966</v>
+        <v>0.5513900995596208</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>51161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38651</v>
+        <v>38923</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65638</v>
+        <v>65437</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2084495645305398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1574799356927668</v>
+        <v>0.1585874970428245</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2674356044502619</v>
+        <v>0.2666169709840962</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -836,19 +836,19 @@
         <v>38997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28501</v>
+        <v>28148</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52261</v>
+        <v>52275</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1782439817178644</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1302695156951772</v>
+        <v>0.1286568732318041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2388739598142666</v>
+        <v>0.2389377341353723</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -857,19 +857,19 @@
         <v>90157</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73131</v>
+        <v>73961</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>108838</v>
+        <v>108982</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1942139184017301</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.157535734700754</v>
+        <v>0.1593242793741469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2344541221981452</v>
+        <v>0.2347652873985418</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>84855</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>70268</v>
+        <v>70033</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>100172</v>
+        <v>100280</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3457328529744597</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2863009422028127</v>
+        <v>0.2853435583813289</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4081417965963553</v>
+        <v>0.4085821855473048</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -907,19 +907,19 @@
         <v>15117</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8086</v>
+        <v>8603</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24086</v>
+        <v>25180</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06909555088906368</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03696119868958905</v>
+        <v>0.03932030096676534</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1100907253017762</v>
+        <v>0.1150939883578272</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>93</v>
@@ -928,19 +928,19 @@
         <v>99972</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>81263</v>
+        <v>82512</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>118981</v>
+        <v>119352</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2153559367951182</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1750535767188363</v>
+        <v>0.1777448247743051</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.256305588118218</v>
+        <v>0.2571033756683063</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>30094</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20042</v>
+        <v>20566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41002</v>
+        <v>41708</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1226154318628265</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08165793568389408</v>
+        <v>0.08379366687538292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.167056817131157</v>
+        <v>0.1699330396638968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -978,19 +978,19 @@
         <v>12265</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6347</v>
+        <v>6193</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21047</v>
+        <v>21007</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05606152000319306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02901203514996679</v>
+        <v>0.02830565092318222</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09620103681216854</v>
+        <v>0.09601592989633213</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -999,19 +999,19 @@
         <v>42359</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30676</v>
+        <v>30034</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56247</v>
+        <v>55429</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09124911313964815</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06608026250758202</v>
+        <v>0.06469716617578478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.121166232326739</v>
+        <v>0.119402145863811</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>249346</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>223096</v>
+        <v>224844</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>273913</v>
+        <v>275445</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3882981050775812</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3474199574530523</v>
+        <v>0.3501432182251305</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4265568050549272</v>
+        <v>0.4289421654742638</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>186</v>
@@ -1124,19 +1124,19 @@
         <v>196638</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>180285</v>
+        <v>179691</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>211955</v>
+        <v>213067</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6837309136686631</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6268700798697472</v>
+        <v>0.6248037789725325</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7369873424966233</v>
+        <v>0.7408546984779218</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>423</v>
@@ -1145,19 +1145,19 @@
         <v>445984</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>413730</v>
+        <v>416556</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>476726</v>
+        <v>478358</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4796834807051315</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4449929894704484</v>
+        <v>0.4480318819726872</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5127487215195613</v>
+        <v>0.5145037957219606</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>149989</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>128586</v>
+        <v>128887</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174380</v>
+        <v>171791</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2335727472359204</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2002423766595072</v>
+        <v>0.2007114227566809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2715572357898586</v>
+        <v>0.2675249593473413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -1195,19 +1195,19 @@
         <v>59159</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46993</v>
+        <v>45991</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74213</v>
+        <v>74587</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2057029611220727</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1633979931646825</v>
+        <v>0.1599168536119307</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2580448738622389</v>
+        <v>0.2593452719958363</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>200</v>
@@ -1216,19 +1216,19 @@
         <v>209148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>184910</v>
+        <v>184426</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>239337</v>
+        <v>235194</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2249518669592187</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1988825665156182</v>
+        <v>0.1983620500516217</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2574219500571003</v>
+        <v>0.2529658034771161</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>185690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>163211</v>
+        <v>162693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>209276</v>
+        <v>212978</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2891686429143792</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.254163463507585</v>
+        <v>0.2533564952933463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3258990458785488</v>
+        <v>0.3316634777866374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -1266,19 +1266,19 @@
         <v>19251</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11667</v>
+        <v>12079</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28606</v>
+        <v>28824</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06693768585178984</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04056883496312468</v>
+        <v>0.04200135400779182</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09946544740923365</v>
+        <v>0.1002235043486731</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>197</v>
@@ -1287,19 +1287,19 @@
         <v>204941</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>181887</v>
+        <v>180556</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>230816</v>
+        <v>231096</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2204265841562925</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1956307568037998</v>
+        <v>0.1941996379063016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2482565871388707</v>
+        <v>0.2485580854943295</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>57126</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42832</v>
+        <v>43067</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73763</v>
+        <v>72730</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08896050477211918</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06670024938320546</v>
+        <v>0.06706638997165373</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1148690015495621</v>
+        <v>0.1132603991848969</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1337,19 +1337,19 @@
         <v>12547</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6612</v>
+        <v>6597</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21092</v>
+        <v>20586</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04362843935747435</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02299109473048805</v>
+        <v>0.02293717382678973</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07333919835173049</v>
+        <v>0.07158076852322214</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>67</v>
@@ -1358,19 +1358,19 @@
         <v>69673</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>53855</v>
+        <v>53843</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>87424</v>
+        <v>86264</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07493806817935732</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05792482819037977</v>
+        <v>0.05791154530093277</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09402957816068466</v>
+        <v>0.09278187621190027</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>329334</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302881</v>
+        <v>302288</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359444</v>
+        <v>354065</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4660368721787089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4286035667949997</v>
+        <v>0.4277639414347089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.508644360260832</v>
+        <v>0.5010327489975863</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>264</v>
@@ -1483,19 +1483,19 @@
         <v>269662</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>253178</v>
+        <v>251993</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>284832</v>
+        <v>284675</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7585206919887945</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7121531241119481</v>
+        <v>0.7088222975714946</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8011935263017156</v>
+        <v>0.8007498488311452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>584</v>
@@ -1504,19 +1504,19 @@
         <v>598995</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>567652</v>
+        <v>565035</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>633758</v>
+        <v>632561</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5639307288268194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5344217047979845</v>
+        <v>0.5319583118928189</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5966579431083178</v>
+        <v>0.595531127767346</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>164172</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>140118</v>
+        <v>142779</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>188240</v>
+        <v>187946</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2323179016470915</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1982785824347466</v>
+        <v>0.2020444558426773</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2663763516817197</v>
+        <v>0.2659597727537888</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>50</v>
@@ -1554,19 +1554,19 @@
         <v>54195</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>40772</v>
+        <v>41708</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>69074</v>
+        <v>70069</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1524420006630325</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1146869770818765</v>
+        <v>0.1173198921627049</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1942941876474795</v>
+        <v>0.1970953771816214</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>205</v>
@@ -1575,19 +1575,19 @@
         <v>218367</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>194404</v>
+        <v>191760</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>247710</v>
+        <v>246879</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2055835680841293</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1830240549747021</v>
+        <v>0.1805349501236766</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2332094128510296</v>
+        <v>0.2324272269031121</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>170298</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>147876</v>
+        <v>146500</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194190</v>
+        <v>194464</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2409862674492872</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2092572249720906</v>
+        <v>0.207310215873682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2747957947176937</v>
+        <v>0.2751839114909517</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1625,19 +1625,19 @@
         <v>23789</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15752</v>
+        <v>16150</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34164</v>
+        <v>34471</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06691414149319753</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04430891738067912</v>
+        <v>0.04542648250527721</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0960999514746638</v>
+        <v>0.0969626632574732</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>188</v>
@@ -1646,19 +1646,19 @@
         <v>194086</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>171809</v>
+        <v>166362</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>221327</v>
+        <v>219856</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1827246112802656</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1617518811370036</v>
+        <v>0.1566236197849341</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2083703361434263</v>
+        <v>0.2069853861618219</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>42866</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32112</v>
+        <v>31892</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56414</v>
+        <v>56753</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06065895872491246</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04544139078170672</v>
+        <v>0.04513009172688218</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07983044767583537</v>
+        <v>0.08031013998954266</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1696,19 +1696,19 @@
         <v>7865</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3761</v>
+        <v>3065</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14834</v>
+        <v>14508</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02212316585497553</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01057836227035795</v>
+        <v>0.008621367886235276</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04172611595398744</v>
+        <v>0.04080971820859823</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -1717,19 +1717,19 @@
         <v>50731</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37574</v>
+        <v>37360</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65778</v>
+        <v>66324</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0477610918087857</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03537421063091746</v>
+        <v>0.03517307339703062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06192725502772409</v>
+        <v>0.0624415699126433</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>179569</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>162452</v>
+        <v>162525</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>195937</v>
+        <v>198096</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.589996178564089</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5337578618380222</v>
+        <v>0.5339961259853724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6437750836538735</v>
+        <v>0.650868389978425</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>122</v>
@@ -1842,19 +1842,19 @@
         <v>124380</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>112728</v>
+        <v>111083</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>134307</v>
+        <v>133376</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7784302274135032</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7055086947825185</v>
+        <v>0.6952118575617263</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8405562737034383</v>
+        <v>0.8347313806505497</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>295</v>
@@ -1863,19 +1863,19 @@
         <v>303948</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>283869</v>
+        <v>282738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>324403</v>
+        <v>323123</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.654865776472947</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6116055172726859</v>
+        <v>0.6091671202535435</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6989361731708409</v>
+        <v>0.6961779211204565</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>43184</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31487</v>
+        <v>31848</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56354</v>
+        <v>56087</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1418853167764024</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1034530020305449</v>
+        <v>0.1046401155550335</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1851581367228978</v>
+        <v>0.1842819831477894</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1913,19 +1913,19 @@
         <v>19226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11521</v>
+        <v>12449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27358</v>
+        <v>28774</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1203248418904688</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07210692664705648</v>
+        <v>0.07791229253164679</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1712208360338519</v>
+        <v>0.1800848128774656</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -1934,19 +1934,19 @@
         <v>62409</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>48412</v>
+        <v>48186</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>78550</v>
+        <v>79147</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1344629886721422</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1043052533679566</v>
+        <v>0.1038185208493694</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1692378029047782</v>
+        <v>0.1705244089424878</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>51136</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37970</v>
+        <v>36833</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>66210</v>
+        <v>64928</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.168013302509242</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1247562211980509</v>
+        <v>0.1210203120985252</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2175417363214731</v>
+        <v>0.2133297501575211</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1984,19 +1984,19 @@
         <v>10144</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5253</v>
+        <v>5298</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18117</v>
+        <v>17786</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06348701608992922</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03287440362534741</v>
+        <v>0.03316035304592077</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1133859128396346</v>
+        <v>0.1113118111427599</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>56</v>
@@ -2005,19 +2005,19 @@
         <v>61280</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>47111</v>
+        <v>47592</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>77903</v>
+        <v>79591</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1320294757415776</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1015028664453918</v>
+        <v>0.1025383092134122</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1678435035735762</v>
+        <v>0.1714811076520118</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>30468</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21210</v>
+        <v>20500</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42707</v>
+        <v>42608</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1001052021502666</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06968964907533637</v>
+        <v>0.06735657203078732</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1403205445833252</v>
+        <v>0.139994669513542</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>6033</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2514</v>
+        <v>1889</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13165</v>
+        <v>11548</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0377579146060988</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01573531575423492</v>
+        <v>0.01182423840741909</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08239555771618903</v>
+        <v>0.07227384036852334</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -2076,19 +2076,19 @@
         <v>36501</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25772</v>
+        <v>26390</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50299</v>
+        <v>49116</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07864175911333326</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05552606315732164</v>
+        <v>0.05685894981456538</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1083699354399567</v>
+        <v>0.1058219391917991</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>837574</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>794871</v>
+        <v>793912</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>883577</v>
+        <v>882178</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4411508302263363</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4186593858533436</v>
+        <v>0.4181540695449164</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4653806976625269</v>
+        <v>0.4646439552732102</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>714</v>
@@ -2201,19 +2201,19 @@
         <v>743082</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>714593</v>
+        <v>713149</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>771227</v>
+        <v>770031</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7273214077726676</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6994366768446424</v>
+        <v>0.6980229244638305</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7548690538637618</v>
+        <v>0.7536978953720089</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1520</v>
@@ -2222,19 +2222,19 @@
         <v>1580656</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1529137</v>
+        <v>1527528</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1634727</v>
+        <v>1634796</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5412685259391704</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5236267976700802</v>
+        <v>0.5230757951680747</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5597840403876423</v>
+        <v>0.5598076869140217</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>408505</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>371103</v>
+        <v>371871</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>446006</v>
+        <v>445725</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2151600872542594</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1954603757770481</v>
+        <v>0.195864931349393</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2349119290520517</v>
+        <v>0.2347637647572858</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>159</v>
@@ -2272,19 +2272,19 @@
         <v>171576</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>148610</v>
+        <v>147587</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>197655</v>
+        <v>198028</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1679370861305695</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1454581708659562</v>
+        <v>0.1444569967267683</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1934629191115806</v>
+        <v>0.1938273557583604</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>547</v>
@@ -2293,19 +2293,19 @@
         <v>580082</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>538377</v>
+        <v>538348</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>622540</v>
+        <v>625900</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1986389686344286</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1843581006268696</v>
+        <v>0.1843480216579286</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2131779693691221</v>
+        <v>0.2143288438924032</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>491978</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>450669</v>
+        <v>454591</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>529242</v>
+        <v>531306</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2591253631008782</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2373675353739395</v>
+        <v>0.2394336119632889</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2787523088331089</v>
+        <v>0.2798394997916365</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -2343,19 +2343,19 @@
         <v>68301</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>53786</v>
+        <v>54688</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>85813</v>
+        <v>86877</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06685191891464821</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05264521504776484</v>
+        <v>0.0535281609155713</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08399312006293168</v>
+        <v>0.08503425234878277</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>534</v>
@@ -2364,19 +2364,19 @@
         <v>560279</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>517727</v>
+        <v>517399</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>607554</v>
+        <v>605367</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1918578810845658</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1772867457258404</v>
+        <v>0.1771743667323098</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2080463444741945</v>
+        <v>0.207297589722352</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>160554</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>134202</v>
+        <v>137083</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>185281</v>
+        <v>185293</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0845637194185261</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07068404518292673</v>
+        <v>0.07220171026739085</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09758778543137903</v>
+        <v>0.09759401225829957</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>37</v>
@@ -2414,19 +2414,19 @@
         <v>38711</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>27955</v>
+        <v>27534</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>52294</v>
+        <v>52712</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03788958718211465</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.027361837404294</v>
+        <v>0.02694970466370804</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05118479310981989</v>
+        <v>0.05159441633532721</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>194</v>
@@ -2435,19 +2435,19 @@
         <v>199264</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>173622</v>
+        <v>171779</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>229453</v>
+        <v>228063</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06823462434183508</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05945385681207326</v>
+        <v>0.0588227986351718</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07857213488428108</v>
+        <v>0.07809613727120104</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>73129</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57992</v>
+        <v>58836</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88493</v>
+        <v>89250</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2648055756796091</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2099925348980177</v>
+        <v>0.2130479976591364</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.320438992876551</v>
+        <v>0.3231794304063474</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -2800,19 +2800,19 @@
         <v>116218</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>100910</v>
+        <v>100293</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>131660</v>
+        <v>130695</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5203759738401388</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4518335936175055</v>
+        <v>0.4490731178913336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5895187274779499</v>
+        <v>0.585199752209808</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>173</v>
@@ -2821,19 +2821,19 @@
         <v>189347</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165698</v>
+        <v>168075</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>211800</v>
+        <v>211428</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3790758123523391</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3317299446655235</v>
+        <v>0.3364899212835249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4240275035138611</v>
+        <v>0.4232818983862158</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>78866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65202</v>
+        <v>64240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96216</v>
+        <v>95357</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2855772290001883</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.23609941065448</v>
+        <v>0.2326156377624465</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3484056096829862</v>
+        <v>0.3452948926969501</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -2871,19 +2871,19 @@
         <v>64752</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51549</v>
+        <v>51777</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79678</v>
+        <v>78545</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2899312426256954</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2308142418813785</v>
+        <v>0.2318352481689342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3567649348123955</v>
+        <v>0.3516944169317237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -2892,19 +2892,19 @@
         <v>143617</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>124163</v>
+        <v>123568</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>164517</v>
+        <v>165977</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2875239887620543</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2485766717237261</v>
+        <v>0.2473857427948052</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3293656000316637</v>
+        <v>0.3322899244925012</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>58175</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44775</v>
+        <v>44889</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71315</v>
+        <v>73931</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2106565693151284</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.162134293667313</v>
+        <v>0.1625443130318921</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2582377336272363</v>
+        <v>0.2677070080268436</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -2942,19 +2942,19 @@
         <v>18856</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11678</v>
+        <v>11286</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28562</v>
+        <v>30345</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08442961390230033</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05229094553693756</v>
+        <v>0.05053194149813407</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.127889719173605</v>
+        <v>0.1358745845018246</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>72</v>
@@ -2963,19 +2963,19 @@
         <v>77031</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61621</v>
+        <v>61784</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>95603</v>
+        <v>97991</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1542181704500065</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.123365773892308</v>
+        <v>0.12369320371781</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1913985235793523</v>
+        <v>0.1961804826068435</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>65992</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52458</v>
+        <v>50553</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82017</v>
+        <v>81276</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2389606260050741</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1899525620881212</v>
+        <v>0.1830572168720757</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2969901366626186</v>
+        <v>0.2943056889412101</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -3013,19 +3013,19 @@
         <v>23509</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15231</v>
+        <v>15132</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35339</v>
+        <v>33155</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1052631696318654</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06819907520338496</v>
+        <v>0.06775300206558266</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1582340989353666</v>
+        <v>0.14845415851793</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -3034,19 +3034,19 @@
         <v>89501</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73253</v>
+        <v>74184</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107549</v>
+        <v>109069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1791820284356001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1466528432359262</v>
+        <v>0.148517395412478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2153147069936524</v>
+        <v>0.2183580326820122</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>115346</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>97779</v>
+        <v>96541</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>133909</v>
+        <v>133089</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3018944850865306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2559183425829809</v>
+        <v>0.2526771459797899</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3504802924866235</v>
+        <v>0.3483335872839469</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>140</v>
@@ -3159,19 +3159,19 @@
         <v>152058</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>136136</v>
+        <v>134829</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>168028</v>
+        <v>167104</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5984024671606446</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5357446603049404</v>
+        <v>0.5306001052681353</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6612490290226642</v>
+        <v>0.6576141368210332</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>247</v>
@@ -3180,19 +3180,19 @@
         <v>267404</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>238300</v>
+        <v>242449</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>290970</v>
+        <v>292538</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4203275372292085</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3745790475565944</v>
+        <v>0.3811010895152171</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4573701171279164</v>
+        <v>0.4598350260743068</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>93968</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77909</v>
+        <v>78530</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111801</v>
+        <v>111742</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.245941999803046</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2039103540832536</v>
+        <v>0.2055373491785555</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2926170059596608</v>
+        <v>0.2924636578134417</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -3230,19 +3230,19 @@
         <v>59414</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45583</v>
+        <v>45815</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74592</v>
+        <v>74013</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2338142400856178</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1793845528338579</v>
+        <v>0.1802965219292295</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2935474591347791</v>
+        <v>0.2912658647750856</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -3251,19 +3251,19 @@
         <v>153382</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133284</v>
+        <v>133251</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>177031</v>
+        <v>175401</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2410978550048496</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.209506155318968</v>
+        <v>0.2094555011625585</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2782725784233274</v>
+        <v>0.2757097627782168</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>104444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88533</v>
+        <v>87947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124374</v>
+        <v>123667</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2733611871738432</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2317184036147547</v>
+        <v>0.2301836328641965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3255241068129684</v>
+        <v>0.3236732742967069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -3301,19 +3301,19 @@
         <v>17779</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10762</v>
+        <v>9715</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27952</v>
+        <v>27716</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0699677896655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04235206312726241</v>
+        <v>0.03823003459624676</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1100001233367705</v>
+        <v>0.1090704584485483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>118</v>
@@ -3322,19 +3322,19 @@
         <v>122223</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>103726</v>
+        <v>104086</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>143947</v>
+        <v>146675</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1921205383249331</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1630446837004782</v>
+        <v>0.1636111611813039</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2262676916805061</v>
+        <v>0.2305555739345054</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>68316</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53198</v>
+        <v>53478</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83669</v>
+        <v>84524</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1788023279365803</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1392349618321412</v>
+        <v>0.1399677517602262</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2189868850598608</v>
+        <v>0.2212239553499296</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -3372,19 +3372,19 @@
         <v>24856</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16131</v>
+        <v>16501</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36381</v>
+        <v>34911</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09781550308823768</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06348271732897415</v>
+        <v>0.06493704044438618</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1431721868127246</v>
+        <v>0.1373853758325149</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>88</v>
@@ -3393,19 +3393,19 @@
         <v>93171</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>75139</v>
+        <v>76511</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>111951</v>
+        <v>113512</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1464540694410089</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1181096280005323</v>
+        <v>0.1202660957636523</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1759730697537284</v>
+        <v>0.1784278036139294</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>175457</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151898</v>
+        <v>154915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>196344</v>
+        <v>197703</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3866079267583781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3346973980583927</v>
+        <v>0.3413459193595803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4326311965878876</v>
+        <v>0.4356263157232466</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>184</v>
@@ -3518,19 +3518,19 @@
         <v>196030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>180314</v>
+        <v>180895</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>210572</v>
+        <v>210573</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7034676697158576</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6470702902476908</v>
+        <v>0.6491555662016559</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7556552605900011</v>
+        <v>0.7556589499892239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>348</v>
@@ -3539,19 +3539,19 @@
         <v>371487</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>343683</v>
+        <v>341617</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>399522</v>
+        <v>398915</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5071498109199163</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4691920102079266</v>
+        <v>0.4663711718578396</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5454226637706231</v>
+        <v>0.5445934329246076</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>128663</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>107914</v>
+        <v>110587</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>148176</v>
+        <v>150509</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2835008359186968</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2377823950960376</v>
+        <v>0.2436713816188975</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3264953069762196</v>
+        <v>0.3316369241741647</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>51</v>
@@ -3589,19 +3589,19 @@
         <v>53957</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41756</v>
+        <v>43239</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>68016</v>
+        <v>68609</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1936275668204671</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1498443193251114</v>
+        <v>0.1551665614136357</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2440794694943961</v>
+        <v>0.2462078123546938</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>174</v>
@@ -3610,19 +3610,19 @@
         <v>182620</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>160907</v>
+        <v>159904</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>209491</v>
+        <v>207140</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2493106510383432</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2196687179011908</v>
+        <v>0.2182993466558918</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2859949112803717</v>
+        <v>0.2827853398189714</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>98067</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81901</v>
+        <v>80783</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118376</v>
+        <v>116048</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2160851673216758</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.180463239043202</v>
+        <v>0.1780003164553154</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.260832758353107</v>
+        <v>0.2557048930424465</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -3660,19 +3660,19 @@
         <v>19183</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11936</v>
+        <v>12276</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29702</v>
+        <v>28720</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06884078852976545</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04283315428098568</v>
+        <v>0.04405446294144985</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1065869913982806</v>
+        <v>0.1030655465620718</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -3681,19 +3681,19 @@
         <v>117251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97268</v>
+        <v>98937</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137143</v>
+        <v>139511</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1600694845274311</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1327897566041315</v>
+        <v>0.135067741668759</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1872259355480183</v>
+        <v>0.190458694510359</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>51649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39094</v>
+        <v>38541</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>66914</v>
+        <v>69138</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1138060700012491</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08614079375945442</v>
+        <v>0.08492332839988065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1474400077831874</v>
+        <v>0.1523420036639489</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -3731,19 +3731,19 @@
         <v>9492</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5143</v>
+        <v>4273</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17334</v>
+        <v>16712</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03406397493390981</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01845752687668574</v>
+        <v>0.01533423869410913</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06220526366542974</v>
+        <v>0.05997406495858305</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>57</v>
@@ -3752,19 +3752,19 @@
         <v>61142</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47623</v>
+        <v>47790</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78790</v>
+        <v>81911</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08347005351430943</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06501434846997983</v>
+        <v>0.06524221941507782</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1075632963036698</v>
+        <v>0.1118236991501981</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>145908</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>128836</v>
+        <v>129403</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>164928</v>
+        <v>164746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4939228262908121</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4361308221990035</v>
+        <v>0.4380513624918335</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.558308511378711</v>
+        <v>0.5576947542327556</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>113</v>
@@ -3877,19 +3877,19 @@
         <v>125284</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>111350</v>
+        <v>112012</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>137304</v>
+        <v>138158</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6716341615963</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5969377771549197</v>
+        <v>0.6004861471916059</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7360749933601305</v>
+        <v>0.7406490932709789</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>244</v>
@@ -3898,19 +3898,19 @@
         <v>271191</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>248097</v>
+        <v>246238</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>294297</v>
+        <v>292350</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5627061151927728</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5147864944346039</v>
+        <v>0.510929894501135</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.61064927066115</v>
+        <v>0.6066086133687438</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>80316</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63912</v>
+        <v>64990</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95702</v>
+        <v>97205</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2718839977022498</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2163521813076472</v>
+        <v>0.2200016362838307</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3239681442781028</v>
+        <v>0.329055127537296</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -3948,19 +3948,19 @@
         <v>45332</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33408</v>
+        <v>34268</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58272</v>
+        <v>58947</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2430220191113057</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1790956150030656</v>
+        <v>0.1837078685808105</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3123926782068568</v>
+        <v>0.3160077247049693</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>115</v>
@@ -3969,19 +3969,19 @@
         <v>125648</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>104755</v>
+        <v>105523</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146665</v>
+        <v>147626</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2607129499562493</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.217361393364515</v>
+        <v>0.218954732597377</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3043220824859644</v>
+        <v>0.3063160449117974</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>48467</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35275</v>
+        <v>35485</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62818</v>
+        <v>62480</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1640691723576856</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1194132052304051</v>
+        <v>0.1201215727425951</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2126493894421836</v>
+        <v>0.2115049647958661</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -4019,19 +4019,19 @@
         <v>7057</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2998</v>
+        <v>2892</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15045</v>
+        <v>15603</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03783322266457858</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01607135039546826</v>
+        <v>0.01550186148506462</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0806526282447394</v>
+        <v>0.08364504519100298</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>49</v>
@@ -4040,19 +4040,19 @@
         <v>55524</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>42102</v>
+        <v>42478</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>73359</v>
+        <v>72874</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1152094652229195</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08735863736666984</v>
+        <v>0.08813996748806764</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.152216082153756</v>
+        <v>0.1512094527138819</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>20715</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12803</v>
+        <v>12092</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31491</v>
+        <v>30944</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07012400364925245</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04334024317833388</v>
+        <v>0.04093477238634847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1066017823293575</v>
+        <v>0.1047504864870825</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4090,19 +4090,19 @@
         <v>8862</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4107</v>
+        <v>4716</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15761</v>
+        <v>15920</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04751059662781577</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02201633981710602</v>
+        <v>0.02528344622767373</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08449198177927768</v>
+        <v>0.08534721061097283</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -4111,19 +4111,19 @@
         <v>29577</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20031</v>
+        <v>20364</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42495</v>
+        <v>42419</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06137146962805839</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04156300569725079</v>
+        <v>0.04225482865231128</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08817398883576805</v>
+        <v>0.08801643350498349</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>509840</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>474002</v>
+        <v>473622</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>550164</v>
+        <v>549439</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3622362941506813</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3367738604554683</v>
+        <v>0.3365041739545407</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3908867112916036</v>
+        <v>0.3903715034351459</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>543</v>
@@ -4236,19 +4236,19 @@
         <v>589590</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>558935</v>
+        <v>557918</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>621908</v>
+        <v>618955</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6254669842290306</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5929468964089663</v>
+        <v>0.5918679266330816</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6597523181914834</v>
+        <v>0.6566197525487559</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1012</v>
@@ -4257,19 +4257,19 @@
         <v>1099429</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1050573</v>
+        <v>1044440</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1151263</v>
+        <v>1145970</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4678189072035353</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4470299140648932</v>
+        <v>0.4444205181118587</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4898747229948291</v>
+        <v>0.4876225305204958</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>381813</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>346790</v>
+        <v>351085</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>415182</v>
+        <v>415602</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2712743693676632</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2463908338534993</v>
+        <v>0.2494429331146151</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2949832630249032</v>
+        <v>0.2952812505892311</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>207</v>
@@ -4307,19 +4307,19 @@
         <v>223454</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>195843</v>
+        <v>198895</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>252121</v>
+        <v>250821</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2370518506247263</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2077606867203774</v>
+        <v>0.2109976209337213</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2674630046666698</v>
+        <v>0.2660837236883509</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>574</v>
@@ -4328,19 +4328,19 @@
         <v>605267</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>560912</v>
+        <v>560582</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>649828</v>
+        <v>645092</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2575476152682302</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2386739802138003</v>
+        <v>0.2385334958883316</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2765086752940951</v>
+        <v>0.2744933599381432</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>309154</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>278242</v>
+        <v>277931</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>341354</v>
+        <v>341182</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2196508741134647</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1976883167313632</v>
+        <v>0.1974675254201696</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.242528685496313</v>
+        <v>0.2424064514508795</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -4378,19 +4378,19 @@
         <v>62876</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48733</v>
+        <v>48927</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80846</v>
+        <v>81427</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06670198163995941</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05169823657107846</v>
+        <v>0.05190392297986381</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08576569456261582</v>
+        <v>0.08638234736746743</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>351</v>
@@ -4399,19 +4399,19 @@
         <v>372030</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>335975</v>
+        <v>337342</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>409256</v>
+        <v>408488</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1583026182315762</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1429609788541998</v>
+        <v>0.1435426160283003</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1741428827308331</v>
+        <v>0.1738161576457154</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>206672</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>178387</v>
+        <v>182097</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>235962</v>
+        <v>235831</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1468384623681908</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1267420624442352</v>
+        <v>0.1293781125757867</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1676489733522807</v>
+        <v>0.1675555828592104</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>62</v>
@@ -4449,19 +4449,19 @@
         <v>66719</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>51458</v>
+        <v>52578</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>83890</v>
+        <v>86153</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07077918350628365</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05458883485720784</v>
+        <v>0.0557771004258282</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08899464760581664</v>
+        <v>0.09139554782246695</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>255</v>
@@ -4470,19 +4470,19 @@
         <v>273391</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>242685</v>
+        <v>238384</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>307031</v>
+        <v>305621</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1163308592966584</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1032650414297179</v>
+        <v>0.1014348660904486</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1306449318151427</v>
+        <v>0.1300451490435656</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>66485</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52541</v>
+        <v>53445</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82710</v>
+        <v>84413</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2288510438133773</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1808550634203678</v>
+        <v>0.1839676096983202</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2847018065825533</v>
+        <v>0.2905623414406357</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -4835,19 +4835,19 @@
         <v>126440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109704</v>
+        <v>110709</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>143518</v>
+        <v>142852</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4577264530364224</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3971417227371696</v>
+        <v>0.4007813781297506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5195527203256908</v>
+        <v>0.5171426410201005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -4856,19 +4856,19 @@
         <v>192924</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>169521</v>
+        <v>170268</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>215980</v>
+        <v>215808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3404051247464619</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2991115484379095</v>
+        <v>0.3004287152215742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3810859674947445</v>
+        <v>0.3807831019355731</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>75768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62336</v>
+        <v>61590</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92552</v>
+        <v>92140</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2608068823981061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.214570808703915</v>
+        <v>0.212001542775218</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3185799776401614</v>
+        <v>0.3171608328321707</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -4906,19 +4906,19 @@
         <v>68171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53626</v>
+        <v>54970</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81775</v>
+        <v>82200</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2467862366996312</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1941325943547941</v>
+        <v>0.1989988857675136</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2960352353815529</v>
+        <v>0.2975733480016963</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -4927,19 +4927,19 @@
         <v>143939</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>122504</v>
+        <v>124337</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>164491</v>
+        <v>165298</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2539732070360773</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2161516135975365</v>
+        <v>0.2193867270099559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2902365268425198</v>
+        <v>0.291660324253626</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>79413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64518</v>
+        <v>65552</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95806</v>
+        <v>96785</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.273352518774473</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2220826846623671</v>
+        <v>0.2256391360483248</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3297805004505645</v>
+        <v>0.3331512406939723</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -4977,19 +4977,19 @@
         <v>38255</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27552</v>
+        <v>28004</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52044</v>
+        <v>51524</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1384894644818619</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09974133300438903</v>
+        <v>0.1013789397299101</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1884072554291764</v>
+        <v>0.1865212459039337</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>110</v>
@@ -4998,19 +4998,19 @@
         <v>117669</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>100025</v>
+        <v>99174</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>139256</v>
+        <v>140028</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2076201444468333</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.176488212355409</v>
+        <v>0.1749866982863868</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2457107638942166</v>
+        <v>0.2470724497188732</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>68849</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54784</v>
+        <v>53061</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84375</v>
+        <v>83887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2369895550140436</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1885759501846347</v>
+        <v>0.1826437151878525</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2904325805342974</v>
+        <v>0.2887538881861307</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -5048,19 +5048,19 @@
         <v>43368</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31922</v>
+        <v>32725</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56321</v>
+        <v>56680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1569978457820845</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1155605940979331</v>
+        <v>0.1184695559102932</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.203889857496615</v>
+        <v>0.2051870731871649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -5069,19 +5069,19 @@
         <v>112217</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94423</v>
+        <v>96179</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135142</v>
+        <v>134985</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1980015237706275</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1666044265213291</v>
+        <v>0.169702804655133</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2384511573953453</v>
+        <v>0.2381748418097122</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>103259</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>86863</v>
+        <v>88263</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>121233</v>
+        <v>120657</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2655254789347973</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2233648819511631</v>
+        <v>0.2269653995214441</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3117457925996333</v>
+        <v>0.3102634526389708</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>128</v>
@@ -5194,19 +5194,19 @@
         <v>131976</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>116023</v>
+        <v>114801</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>149082</v>
+        <v>146611</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4905326759607107</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4312355237679282</v>
+        <v>0.4266934710570786</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5541130147179369</v>
+        <v>0.5449255195985139</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>227</v>
@@ -5215,19 +5215,19 @@
         <v>235235</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>211327</v>
+        <v>208885</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>262422</v>
+        <v>260470</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3575373239640147</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3211999739319626</v>
+        <v>0.3174875658682223</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.398859849135258</v>
+        <v>0.3958920660254718</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>126381</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107502</v>
+        <v>107178</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146563</v>
+        <v>146400</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3249829434904632</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2764356575055827</v>
+        <v>0.2756038040565618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3768788917681456</v>
+        <v>0.3764607518777399</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -5265,19 +5265,19 @@
         <v>88217</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72349</v>
+        <v>73903</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104430</v>
+        <v>104875</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3278864286159919</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2689098663784505</v>
+        <v>0.2746857839940139</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3881466283318251</v>
+        <v>0.3898013298646421</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>203</v>
@@ -5286,19 +5286,19 @@
         <v>214598</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>191482</v>
+        <v>191840</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>239898</v>
+        <v>240698</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3261702611716128</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2910359608624778</v>
+        <v>0.2915810075018346</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3646246165610356</v>
+        <v>0.3658411719213028</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>85609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69226</v>
+        <v>70668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101655</v>
+        <v>103186</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2201384873102072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1780112359475887</v>
+        <v>0.1817186187730946</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2614016007050361</v>
+        <v>0.2653387825731305</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -5336,19 +5336,19 @@
         <v>30696</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21027</v>
+        <v>21565</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44177</v>
+        <v>43072</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.114090991062893</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07815330398170617</v>
+        <v>0.0801528212850595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1641976347381812</v>
+        <v>0.1600925105283331</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>114</v>
@@ -5357,19 +5357,19 @@
         <v>116304</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99160</v>
+        <v>96775</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>137658</v>
+        <v>136352</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1767726487085174</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1507148539647935</v>
+        <v>0.1470891948074395</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2092288010814159</v>
+        <v>0.2072436526364354</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>73637</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>58550</v>
+        <v>60249</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89216</v>
+        <v>90797</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1893530902645322</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1505598321995381</v>
+        <v>0.1549272059530329</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.229415055176327</v>
+        <v>0.2334804118226866</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -5407,19 +5407,19 @@
         <v>18158</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11396</v>
+        <v>10974</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28669</v>
+        <v>26617</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06748990436040447</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04235545288690169</v>
+        <v>0.04078931478292215</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1065574429179403</v>
+        <v>0.09892991146777183</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>88</v>
@@ -5428,19 +5428,19 @@
         <v>91794</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>75217</v>
+        <v>74584</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>110439</v>
+        <v>112242</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1395197661558551</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1143232091442567</v>
+        <v>0.1133612219867694</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1678584833778482</v>
+        <v>0.1705979912669335</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>181999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161003</v>
+        <v>158600</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>205161</v>
+        <v>203342</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4007374154319041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3545066586714121</v>
+        <v>0.3492153060807723</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4517375643920383</v>
+        <v>0.4477324792021367</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>179</v>
@@ -5553,19 +5553,19 @@
         <v>176815</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>160806</v>
+        <v>159999</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>192366</v>
+        <v>193317</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6102682909556416</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5550115948277855</v>
+        <v>0.5522261603560961</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6639416849458913</v>
+        <v>0.6672230506979799</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>349</v>
@@ -5574,19 +5574,19 @@
         <v>358814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>333369</v>
+        <v>330574</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>386475</v>
+        <v>386120</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.482346090395982</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4481414946231635</v>
+        <v>0.4443838123680306</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.519530197350478</v>
+        <v>0.5190527319333434</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>117170</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>99365</v>
+        <v>97453</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>137323</v>
+        <v>135838</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2579931042687799</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.218789274285357</v>
+        <v>0.2145775358828644</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3023671575645</v>
+        <v>0.2990964825792131</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>65</v>
@@ -5624,19 +5624,19 @@
         <v>65167</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>51752</v>
+        <v>52045</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>80837</v>
+        <v>81163</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2249214832550691</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1786191407676095</v>
+        <v>0.1796315450204203</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.279005607939477</v>
+        <v>0.2801302161939226</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>177</v>
@@ -5645,19 +5645,19 @@
         <v>182337</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>159868</v>
+        <v>160472</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>205397</v>
+        <v>207941</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2451122762614663</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2149070681538238</v>
+        <v>0.2157187883439106</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2761105253359154</v>
+        <v>0.2795305404314389</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>89653</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72109</v>
+        <v>73313</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108524</v>
+        <v>107817</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1974042558523529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1587751701822361</v>
+        <v>0.1614257274051125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2389560713922393</v>
+        <v>0.2373987361837352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -5695,19 +5695,19 @@
         <v>33370</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23616</v>
+        <v>23894</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45944</v>
+        <v>45688</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.11517414207309</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08151040161956399</v>
+        <v>0.08246896415415647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1585713416714761</v>
+        <v>0.1576911678307036</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>117</v>
@@ -5716,19 +5716,19 @@
         <v>123023</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103728</v>
+        <v>104221</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144257</v>
+        <v>145613</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1653770397635681</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1394394235604396</v>
+        <v>0.1401023923381819</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1939218648040446</v>
+        <v>0.1957444486143466</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>65338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51141</v>
+        <v>51357</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82443</v>
+        <v>81516</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1438652244469631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1126048229528427</v>
+        <v>0.1130814532566126</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1815291093390494</v>
+        <v>0.1794879711037141</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -5766,19 +5766,19 @@
         <v>14381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8390</v>
+        <v>8368</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24218</v>
+        <v>24001</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04963608371619926</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02895772447981229</v>
+        <v>0.02888263917898028</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08358831083764319</v>
+        <v>0.08283643587750554</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -5787,19 +5787,19 @@
         <v>79719</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>63501</v>
+        <v>64437</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>98577</v>
+        <v>98321</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1071645935789836</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08536357761710224</v>
+        <v>0.08662195158831107</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1325153147900263</v>
+        <v>0.132170833801544</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>110025</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94376</v>
+        <v>93766</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129178</v>
+        <v>128783</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4028593321548036</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3455578487299473</v>
+        <v>0.3433258330658677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.472988593517322</v>
+        <v>0.4715396392365805</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>119</v>
@@ -5912,19 +5912,19 @@
         <v>122396</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>108228</v>
+        <v>108392</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>136477</v>
+        <v>135527</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6307047812382303</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5576969183511615</v>
+        <v>0.5585427727609126</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7032599196171672</v>
+        <v>0.6983663536208179</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>217</v>
@@ -5933,19 +5933,19 @@
         <v>232422</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>208966</v>
+        <v>210607</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>254562</v>
+        <v>253358</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4975057264786126</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4472974619695894</v>
+        <v>0.4508109168383659</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5448978578492353</v>
+        <v>0.5423207209543509</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>81143</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>64647</v>
+        <v>67063</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95893</v>
+        <v>98756</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2971061815183966</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2367061981053717</v>
+        <v>0.2455504394648244</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3511124732686314</v>
+        <v>0.3615982905141769</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -5983,19 +5983,19 @@
         <v>36444</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25291</v>
+        <v>26096</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48724</v>
+        <v>49425</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1877949057112693</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1303229075350052</v>
+        <v>0.1344736881945949</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2510730368843823</v>
+        <v>0.2546874184877796</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>108</v>
@@ -6004,19 +6004,19 @@
         <v>117587</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99719</v>
+        <v>97972</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>137242</v>
+        <v>135698</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2516985679114564</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2134519429022976</v>
+        <v>0.2097117956908488</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2937712428936302</v>
+        <v>0.2904667078925208</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>43170</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31769</v>
+        <v>30397</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>55958</v>
+        <v>56373</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1580687905055794</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1163236418599375</v>
+        <v>0.1112991060417722</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2048918175163849</v>
+        <v>0.2064100528660886</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -6054,19 +6054,19 @@
         <v>23189</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15494</v>
+        <v>14709</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36352</v>
+        <v>33949</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1194914184475233</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07983972862632734</v>
+        <v>0.07579588389120857</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1873215295680606</v>
+        <v>0.1749375390004662</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>61</v>
@@ -6075,19 +6075,19 @@
         <v>66359</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>52662</v>
+        <v>50551</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>83277</v>
+        <v>80291</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1420438526256652</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1127235951842782</v>
+        <v>0.1082052481951275</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1782575446723691</v>
+        <v>0.1718643183609964</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>38772</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27147</v>
+        <v>26931</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52363</v>
+        <v>51183</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1419656958212204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09939855573137187</v>
+        <v>0.09861001028988182</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1917271214201545</v>
+        <v>0.1874057016859884</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -6125,19 +6125,19 @@
         <v>12034</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6409</v>
+        <v>7097</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19870</v>
+        <v>20853</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06200889460297714</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03302382160776566</v>
+        <v>0.03656898004373901</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1023906968399874</v>
+        <v>0.1074539181373196</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -6146,19 +6146,19 @@
         <v>50806</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38352</v>
+        <v>38557</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67134</v>
+        <v>66246</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1087518529842659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08209456083509176</v>
+        <v>0.08253225283875466</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1437018573005466</v>
+        <v>0.1418024773174375</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>461767</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>427917</v>
+        <v>421238</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>498259</v>
+        <v>498345</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3282699300554773</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3042057008731521</v>
+        <v>0.2994576162297918</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3542117172624935</v>
+        <v>0.3542725742174686</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>550</v>
@@ -6271,19 +6271,19 @@
         <v>557627</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>526969</v>
+        <v>528069</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>589085</v>
+        <v>589885</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5418713440679994</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5120789175384541</v>
+        <v>0.5131485856892533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.572439825859707</v>
+        <v>0.5732177330097514</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>978</v>
@@ -6292,19 +6292,19 @@
         <v>1019395</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>971558</v>
+        <v>972761</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1070978</v>
+        <v>1074137</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4185142409844258</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3988745730337075</v>
+        <v>0.3993685235573754</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4396915336355389</v>
+        <v>0.4409883889344421</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>400462</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>366601</v>
+        <v>365325</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>431283</v>
+        <v>436389</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2846880453776672</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2606160537921033</v>
+        <v>0.259708848898167</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3065984033754112</v>
+        <v>0.3102281907511485</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>251</v>
@@ -6342,19 +6342,19 @@
         <v>257999</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>230893</v>
+        <v>228877</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>285137</v>
+        <v>284798</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2507089373846423</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2243693177419341</v>
+        <v>0.2224098074373133</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2770798787650016</v>
+        <v>0.2767512484896576</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>625</v>
@@ -6363,19 +6363,19 @@
         <v>658461</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>613391</v>
+        <v>615828</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>707507</v>
+        <v>706115</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2703322359791812</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.251828624795367</v>
+        <v>0.2528289877504153</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2904678989009055</v>
+        <v>0.2898964450716313</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>297845</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>267123</v>
+        <v>267047</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>327779</v>
+        <v>330959</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2117374860088873</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1898971431464858</v>
+        <v>0.1898437344460526</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.233017710424705</v>
+        <v>0.235278588724957</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>118</v>
@@ -6413,19 +6413,19 @@
         <v>125510</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>106314</v>
+        <v>104438</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>149973</v>
+        <v>148450</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1219636098358077</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1033097166779703</v>
+        <v>0.1014872388911485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1457350893328331</v>
+        <v>0.1442552706615095</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>402</v>
@@ -6434,19 +6434,19 @@
         <v>423355</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>382337</v>
+        <v>390642</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>457328</v>
+        <v>464676</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1738089843081197</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1569688855148045</v>
+        <v>0.1603785732907994</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1877567735941685</v>
+        <v>0.1907735744626401</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>246596</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>218382</v>
+        <v>216941</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>275595</v>
+        <v>278228</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1753045385579682</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1552472870956936</v>
+        <v>0.1542232669457769</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1959201205321798</v>
+        <v>0.197792204826028</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>86</v>
@@ -6484,19 +6484,19 @@
         <v>87941</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>72120</v>
+        <v>70960</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>105521</v>
+        <v>105881</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08545610871155065</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07008185448160038</v>
+        <v>0.06895512493256149</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.102539187730745</v>
+        <v>0.1028896516646762</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>308</v>
@@ -6505,19 +6505,19 @@
         <v>334537</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>301700</v>
+        <v>298734</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>372000</v>
+        <v>371380</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1373445387282733</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.123863441307541</v>
+        <v>0.1226457416937674</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1527251053414007</v>
+        <v>0.1524706784028144</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>15401</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8424</v>
+        <v>8475</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26512</v>
+        <v>25899</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1616495971470713</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08842143794788145</v>
+        <v>0.08895123135190397</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2782633051977748</v>
+        <v>0.2718334674326512</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -6870,19 +6870,19 @@
         <v>34670</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26678</v>
+        <v>26178</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43269</v>
+        <v>42436</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4507386416769175</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3468432308151708</v>
+        <v>0.3403364959567653</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5625350486494403</v>
+        <v>0.5517102253790529</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -6891,19 +6891,19 @@
         <v>50071</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38863</v>
+        <v>38127</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64364</v>
+        <v>63973</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2907835166573229</v>
+        <v>0.290783516657323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2256915983814554</v>
+        <v>0.2214180568117495</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.373788668925966</v>
+        <v>0.3715164112188811</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>18265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11067</v>
+        <v>11250</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29005</v>
+        <v>27910</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1917062817127814</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1161576912920989</v>
+        <v>0.1180814840396575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3044276926159322</v>
+        <v>0.2929339224556252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -6941,19 +6941,19 @@
         <v>21972</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15286</v>
+        <v>15491</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29236</v>
+        <v>29675</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2856574902688252</v>
+        <v>0.2856574902688253</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1987365658344695</v>
+        <v>0.2013981704519124</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3800874554560425</v>
+        <v>0.3858032845095906</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -6962,19 +6962,19 @@
         <v>40237</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29137</v>
+        <v>29701</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51366</v>
+        <v>52894</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2336735856737396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1692085418407006</v>
+        <v>0.1724847904727933</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2983029343032576</v>
+        <v>0.3071758709553917</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>35583</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24416</v>
+        <v>24864</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45906</v>
+        <v>48023</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3734726827648899</v>
+        <v>0.3734726827648901</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2562657552664683</v>
+        <v>0.2609689644220072</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4818210224326318</v>
+        <v>0.5040408557594094</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -7012,19 +7012,19 @@
         <v>11234</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6544</v>
+        <v>6599</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17992</v>
+        <v>17757</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.146053064164732</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08508254498552886</v>
+        <v>0.08579318601628373</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2339078207008825</v>
+        <v>0.2308533531973941</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>43</v>
@@ -7033,19 +7033,19 @@
         <v>46817</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34317</v>
+        <v>33903</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>60032</v>
+        <v>59437</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2718860357470956</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1992965718021618</v>
+        <v>0.1968867284234418</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3486341858351701</v>
+        <v>0.3451765741563776</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>26027</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15763</v>
+        <v>16210</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38474</v>
+        <v>38056</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2731714383752571</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1654444183368153</v>
+        <v>0.1701380353748542</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4038113910096925</v>
+        <v>0.3994290552162115</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -7083,19 +7083,19 @@
         <v>9042</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4372</v>
+        <v>4509</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16904</v>
+        <v>16861</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1175508038895252</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05684239343433518</v>
+        <v>0.0586169699661408</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2197667066587776</v>
+        <v>0.2192081409252352</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -7104,19 +7104,19 @@
         <v>35068</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22991</v>
+        <v>24235</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49502</v>
+        <v>50507</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2036568619218417</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1335185936683936</v>
+        <v>0.1407455660398083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2874776257609919</v>
+        <v>0.2933137979645781</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>62747</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>48514</v>
+        <v>47240</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>79951</v>
+        <v>78988</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.270015110876108</v>
+        <v>0.2700151108761079</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2087663831917317</v>
+        <v>0.2032844539805841</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3440487366785847</v>
+        <v>0.3399009942929737</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>86</v>
@@ -7229,19 +7229,19 @@
         <v>65509</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53154</v>
+        <v>54348</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>77623</v>
+        <v>76299</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3992050190030026</v>
+        <v>0.3992050190030025</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3239134199793715</v>
+        <v>0.331191686053372</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4730245577452803</v>
+        <v>0.4649573510786715</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>137</v>
@@ -7250,19 +7250,19 @@
         <v>128256</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>111155</v>
+        <v>109568</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>151253</v>
+        <v>148374</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3234849697264565</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2803529890489565</v>
+        <v>0.2763488197271308</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3814857321819029</v>
+        <v>0.3742261566871539</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>81474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65276</v>
+        <v>66214</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99093</v>
+        <v>98716</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3506017489920508</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2808984739989392</v>
+        <v>0.2849336921826461</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4264201613660922</v>
+        <v>0.4247975877790853</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -7300,19 +7300,19 @@
         <v>53548</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43322</v>
+        <v>43828</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65371</v>
+        <v>65293</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3263145254686384</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2640003643473829</v>
+        <v>0.2670855120140326</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3983618627401214</v>
+        <v>0.3978883930499374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -7321,19 +7321,19 @@
         <v>135022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113906</v>
+        <v>114782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156611</v>
+        <v>156714</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3405496138640642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2872913012640312</v>
+        <v>0.2894999332880324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3950012693708094</v>
+        <v>0.39526153561469</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>50985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39160</v>
+        <v>38306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66974</v>
+        <v>67975</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2193980576906069</v>
+        <v>0.2193980576906068</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1685153531094379</v>
+        <v>0.1648406659013447</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2882056661906294</v>
+        <v>0.292510225882339</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -7371,19 +7371,19 @@
         <v>24854</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17698</v>
+        <v>17485</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34766</v>
+        <v>35361</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1514556513435427</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1078488150646875</v>
+        <v>0.1065541362023433</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2118619175193194</v>
+        <v>0.2154878710897248</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>75</v>
@@ -7392,19 +7392,19 @@
         <v>75838</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60630</v>
+        <v>61328</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>93661</v>
+        <v>92656</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1912776655485038</v>
+        <v>0.1912776655485037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1529201244440345</v>
+        <v>0.1546808794438475</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2362290390294367</v>
+        <v>0.233695825435818</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>37178</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24792</v>
+        <v>25240</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52747</v>
+        <v>53115</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1599850824412344</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1066854915325831</v>
+        <v>0.1086149375746139</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2269834731389301</v>
+        <v>0.2285648256496098</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -7442,19 +7442,19 @@
         <v>20188</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13269</v>
+        <v>12801</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30041</v>
+        <v>29544</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1230248041848164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08086069003136867</v>
+        <v>0.07800937715599561</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1830659533450165</v>
+        <v>0.1800375149803914</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>49</v>
@@ -7463,19 +7463,19 @@
         <v>57366</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>43898</v>
+        <v>42774</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>75096</v>
+        <v>73860</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1446877508609756</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.110718016342556</v>
+        <v>0.1078831329656302</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1894063670569815</v>
+        <v>0.1862874871308049</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>121318</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102324</v>
+        <v>103706</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>141149</v>
+        <v>142281</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3766210897930191</v>
+        <v>0.3766210897930192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3176547528457804</v>
+        <v>0.3219466289864883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4381862623739336</v>
+        <v>0.4417002642447469</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>219</v>
@@ -7588,19 +7588,19 @@
         <v>162006</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>149222</v>
+        <v>148957</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174817</v>
+        <v>173736</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6576706840019321</v>
+        <v>0.6576706840019322</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6057753399312238</v>
+        <v>0.6046969092212914</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7096760094209985</v>
+        <v>0.7052894866039634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>326</v>
@@ -7609,19 +7609,19 @@
         <v>283324</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>259918</v>
+        <v>259269</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>308163</v>
+        <v>307297</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4984102725678582</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4572360381449159</v>
+        <v>0.4560937145142691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5421064324774313</v>
+        <v>0.5405824131773809</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>97880</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>81449</v>
+        <v>80368</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>117597</v>
+        <v>116499</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.303860424968534</v>
+        <v>0.3038604249685341</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2528505471830172</v>
+        <v>0.2494941588055075</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3650698685050153</v>
+        <v>0.3616615401716456</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>86</v>
@@ -7659,19 +7659,19 @@
         <v>59658</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>48588</v>
+        <v>48250</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>72611</v>
+        <v>72411</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.242185222240825</v>
+        <v>0.2421852222408251</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1972468954895421</v>
+        <v>0.1958735931515076</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2947690701780767</v>
+        <v>0.293955800617697</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>176</v>
@@ -7680,19 +7680,19 @@
         <v>157538</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>135105</v>
+        <v>138116</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>178134</v>
+        <v>177912</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2771342787920099</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2376706498790282</v>
+        <v>0.2429669257823192</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3133655929698954</v>
+        <v>0.3129740877412324</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>73527</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57857</v>
+        <v>59473</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91149</v>
+        <v>91188</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2282567518538476</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1796127325808637</v>
+        <v>0.1846289610957933</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2829639723455412</v>
+        <v>0.2830866263036568</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -7730,19 +7730,19 @@
         <v>14721</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9588</v>
+        <v>9000</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23119</v>
+        <v>22623</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05975999108489207</v>
+        <v>0.05975999108489208</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0389218520662533</v>
+        <v>0.03653729549504856</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09385362057231764</v>
+        <v>0.09183740251755994</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>86</v>
@@ -7751,19 +7751,19 @@
         <v>88247</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71343</v>
+        <v>71150</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106043</v>
+        <v>106678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1552408741685566</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1255034211695062</v>
+        <v>0.125164126485243</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1865456815760956</v>
+        <v>0.1876633073625479</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>29397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19220</v>
+        <v>19122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43289</v>
+        <v>43139</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09126173338459917</v>
+        <v>0.09126173338459918</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05966542539960342</v>
+        <v>0.05936135689712444</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1343870226857836</v>
+        <v>0.1339224443365303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -7801,19 +7801,19 @@
         <v>9948</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5490</v>
+        <v>5601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17048</v>
+        <v>16584</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04038410267235067</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02228815003776176</v>
+        <v>0.02273611681553173</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06920794689294901</v>
+        <v>0.06732246451652246</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -7822,19 +7822,19 @@
         <v>39345</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28087</v>
+        <v>27398</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54259</v>
+        <v>54503</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06921457447157522</v>
+        <v>0.06921457447157524</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04940973496706784</v>
+        <v>0.04819713020945118</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09544935207294393</v>
+        <v>0.09587830447718768</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>167488</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>144057</v>
+        <v>147121</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>185517</v>
+        <v>187970</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5261485348240209</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4525415218073873</v>
+        <v>0.4621679679285683</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.582783556743083</v>
+        <v>0.5904907100090026</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -7947,19 +7947,19 @@
         <v>144209</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132212</v>
+        <v>131022</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>155576</v>
+        <v>156120</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6677531079012436</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6122021712336986</v>
+        <v>0.606691647571309</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7203889248385619</v>
+        <v>0.7229059918893085</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>354</v>
@@ -7968,19 +7968,19 @@
         <v>311697</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>287010</v>
+        <v>288634</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>332470</v>
+        <v>334371</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5833854770893767</v>
+        <v>0.5833854770893766</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5371807896224873</v>
+        <v>0.5402199070428017</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6222645695828762</v>
+        <v>0.6258230762194145</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>77544</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61690</v>
+        <v>61734</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95147</v>
+        <v>97226</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2435971131525188</v>
+        <v>0.2435971131525189</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1937942787933098</v>
+        <v>0.1939320477548745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2988954146787165</v>
+        <v>0.3054256961144596</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>57</v>
@@ -8018,19 +8018,19 @@
         <v>39467</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30543</v>
+        <v>30769</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49950</v>
+        <v>49859</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1827514802760591</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1414277002602753</v>
+        <v>0.1424745280968475</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2312908671724056</v>
+        <v>0.2308682215316924</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>126</v>
@@ -8039,19 +8039,19 @@
         <v>117011</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99337</v>
+        <v>98616</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>137705</v>
+        <v>139163</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2190031477150486</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1859225437064407</v>
+        <v>0.1845731350642597</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2577354069865045</v>
+        <v>0.2604628078124124</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>36892</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23564</v>
+        <v>24281</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54102</v>
+        <v>54550</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1158929380247316</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.074023561169018</v>
+        <v>0.07627700097530879</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1699562213615962</v>
+        <v>0.1713638018447002</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -8089,19 +8089,19 @@
         <v>13216</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7760</v>
+        <v>7909</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22115</v>
+        <v>21570</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06119473202275366</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03593220750879315</v>
+        <v>0.03662308440540981</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1024029938866878</v>
+        <v>0.09987778366372495</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>43</v>
@@ -8110,19 +8110,19 @@
         <v>50108</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>34973</v>
+        <v>36074</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>68936</v>
+        <v>68646</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.09378377875876344</v>
+        <v>0.09378377875876343</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06545618673378376</v>
+        <v>0.06751785759045187</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1290232526528294</v>
+        <v>0.1284800401187628</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>36405</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25195</v>
+        <v>24886</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51992</v>
+        <v>53928</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1143614139987287</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07914894590626291</v>
+        <v>0.07817835485616983</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1633277093827477</v>
+        <v>0.1694106518339698</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -8160,19 +8160,19 @@
         <v>19070</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12034</v>
+        <v>12907</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27608</v>
+        <v>29627</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08830067979994353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05572476101003978</v>
+        <v>0.05976766740105164</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1278358389257601</v>
+        <v>0.1371851355634383</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -8181,19 +8181,19 @@
         <v>55474</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42657</v>
+        <v>42543</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74924</v>
+        <v>73073</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1038275964368114</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07983929778727486</v>
+        <v>0.07962488441447976</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1402300772928241</v>
+        <v>0.1367668179508599</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>366955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>331233</v>
+        <v>333197</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>399499</v>
+        <v>401718</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3790419690210195</v>
+        <v>0.3790419690210194</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3421439496395483</v>
+        <v>0.3441725930298289</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.412658395356916</v>
+        <v>0.4149508419369023</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>552</v>
@@ -8306,19 +8306,19 @@
         <v>406393</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>381642</v>
+        <v>381211</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>428729</v>
+        <v>429431</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.577829441325866</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5426369995852227</v>
+        <v>0.5420235962392272</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6095878154910651</v>
+        <v>0.6105851096916934</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>868</v>
@@ -8327,19 +8327,19 @@
         <v>773348</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>726260</v>
+        <v>732870</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>814203</v>
+        <v>816040</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4626888878686858</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4345166827690797</v>
+        <v>0.4384713602241582</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4871324828440056</v>
+        <v>0.4882310444643643</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>275163</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>245188</v>
+        <v>245357</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>307447</v>
+        <v>307752</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2842271802969298</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.253264274519463</v>
+        <v>0.2534388188441889</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3175736049448585</v>
+        <v>0.3178889981369998</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>233</v>
@@ -8377,19 +8377,19 @@
         <v>174645</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>153701</v>
+        <v>157856</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>194606</v>
+        <v>195853</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2483189211918926</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2185394430734749</v>
+        <v>0.224446820263353</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2766994694436227</v>
+        <v>0.2784735565513196</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>472</v>
@@ -8398,19 +8398,19 @@
         <v>449809</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>411197</v>
+        <v>410809</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>487768</v>
+        <v>487380</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2691174995887115</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2460165113831088</v>
+        <v>0.2457845727707322</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2918282652793926</v>
+        <v>0.2915959383907153</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>196986</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>170101</v>
+        <v>170224</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>225377</v>
+        <v>225585</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2034748400792865</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1757045283989596</v>
+        <v>0.1758308741223014</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2328011710102969</v>
+        <v>0.2330154392377444</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>81</v>
@@ -8448,19 +8448,19 @@
         <v>64024</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51510</v>
+        <v>50702</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>79042</v>
+        <v>78976</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09103272812377286</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07323906873718058</v>
+        <v>0.07209051272036252</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1123862152655424</v>
+        <v>0.1122912803797912</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>247</v>
@@ -8469,19 +8469,19 @@
         <v>261010</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>230194</v>
+        <v>231300</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>296936</v>
+        <v>295696</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1561608111580899</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1377233204704061</v>
+        <v>0.1383849521667999</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1776550848951978</v>
+        <v>0.1769126547422526</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>129007</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>102536</v>
+        <v>103719</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>157138</v>
+        <v>159186</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1332560106027643</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.105913654991592</v>
+        <v>0.1071354686517291</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1623142977899416</v>
+        <v>0.1644291621675711</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>69</v>
@@ -8519,19 +8519,19 @@
         <v>58247</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>44824</v>
+        <v>45455</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>73925</v>
+        <v>74152</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08281890935846861</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06373227379249315</v>
+        <v>0.06463056403394883</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1051096783726528</v>
+        <v>0.1054326578428857</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>167</v>
@@ -8540,19 +8540,19 @@
         <v>187254</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>157529</v>
+        <v>157238</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>217501</v>
+        <v>216213</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1120328013845128</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09424843347043355</v>
+        <v>0.09407449981227581</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.130129541832164</v>
+        <v>0.129358694931362</v>
       </c>
     </row>
     <row r="28">
